--- a/data/trans_dic/P20D1_R_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20D1_R_2023-Estudios-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.2025326015737669</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.4471207406439751</v>
+        <v>0.4471207406439752</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.309594574178628</v>
+        <v>0.3095945741786278</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06485870024040112</v>
+        <v>0.06136415864982454</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2601337449370963</v>
+        <v>0.2782114606549834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1854120228312505</v>
+        <v>0.1889137255978132</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4337239236778633</v>
+        <v>0.4166617709636818</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6372701115854505</v>
+        <v>0.6498419802471426</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4598917248208535</v>
+        <v>0.4586451205077172</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.1275117608459064</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.5592809618035293</v>
+        <v>0.5592809618035294</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3269774761877961</v>
+        <v>0.3269774761877962</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04693502573349729</v>
+        <v>0.04912701065158252</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3835591933330513</v>
+        <v>0.3936759506310414</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2243692826860282</v>
+        <v>0.2210070110179686</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2752159435746003</v>
+        <v>0.2675029082416736</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7146894464071812</v>
+        <v>0.7343441255479384</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4733571124866962</v>
+        <v>0.4676921363833371</v>
       </c>
     </row>
     <row r="10">
@@ -692,10 +692,10 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.1844804599152092</v>
+        <v>0.2026791617549324</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08337640606683709</v>
+        <v>0.08301628284866477</v>
       </c>
     </row>
     <row r="12">
@@ -707,10 +707,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.7346918344129715</v>
+        <v>0.737089733623382</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4013432021566005</v>
+        <v>0.4266292739854677</v>
       </c>
     </row>
     <row r="13">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1280014271240324</v>
+        <v>0.1280014271240325</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5101255806469666</v>
+        <v>0.5101255806469667</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.3015198339992791</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06895801508824635</v>
+        <v>0.06923515605625745</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3972600196605647</v>
+        <v>0.3881642846851291</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.227580440439845</v>
+        <v>0.2266581015769459</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2240352116699997</v>
+        <v>0.2294678950273249</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6321429454081043</v>
+        <v>0.6440099487079418</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3909576187927276</v>
+        <v>0.3908325822629715</v>
       </c>
     </row>
     <row r="16">
@@ -906,13 +906,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1262</v>
+        <v>1194</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3941</v>
+        <v>4215</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6417</v>
+        <v>6538</v>
       </c>
     </row>
     <row r="7">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8441</v>
+        <v>8109</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9655</v>
+        <v>9845</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15917</v>
+        <v>15874</v>
       </c>
     </row>
     <row r="8">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1763</v>
+        <v>1845</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12368</v>
+        <v>12694</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15661</v>
+        <v>15426</v>
       </c>
     </row>
     <row r="11">
@@ -995,13 +995,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10335</v>
+        <v>10046</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>23045</v>
+        <v>23679</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>33039</v>
+        <v>32644</v>
       </c>
     </row>
     <row r="12">
@@ -1051,10 +1051,10 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>1722</v>
+        <v>1892</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1711</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="15">
@@ -1066,10 +1066,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>6859</v>
+        <v>6881</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8237</v>
+        <v>8756</v>
       </c>
     </row>
     <row r="16">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4703</v>
+        <v>4722</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>22537</v>
+        <v>22021</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>28432</v>
+        <v>28317</v>
       </c>
     </row>
     <row r="19">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15280</v>
+        <v>15650</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>35862</v>
+        <v>36535</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>48844</v>
+        <v>48828</v>
       </c>
     </row>
     <row r="20">
